--- a/raw-data/interest_rates_bis.xlsx
+++ b/raw-data/interest_rates_bis.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jessica/Desktop/Projects/thesis11-24/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jessica/Desktop/Projects/thesis11-24/raw-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F74064-F30D-6E4B-BA50-6EF18C841615}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B935EB-BB24-7449-BD13-0D23EC15B473}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="960" yWindow="460" windowWidth="25600" windowHeight="14080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Monthly Series" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="197">
   <si>
     <t>Data set</t>
   </si>
@@ -649,6 +649,9 @@
   <si>
     <t>Data cut-off date: 15 October 2019</t>
   </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
 </sst>
 </file>
 
@@ -1176,10 +1179,10 @@
   <dimension ref="A1:AM886"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="L121" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B61" sqref="B61"/>
+      <selection pane="bottomRight" activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1242,7 +1245,7 @@
         <v>62</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>66</v>
+        <v>196</v>
       </c>
       <c r="N1" s="7" t="s">
         <v>70</v>
